--- a/default/template.xlsx
+++ b/default/template.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/otabe/github.com/childhooooo/transform-daily-account/default/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/otabe/github.com/kaoiri/transform-daily-account/default/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C1405C1-C708-954A-ADED-63C8AB12A66D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7964C5D-601F-7746-8B65-C89374B6C81B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7320" yWindow="2240" windowWidth="14380" windowHeight="12940" xr2:uid="{E6267B8B-4A21-4F96-9043-A0C6C3D02555}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="16800" windowHeight="5380" xr2:uid="{E6267B8B-4A21-4F96-9043-A0C6C3D02555}"/>
   </bookViews>
   <sheets>
-    <sheet name="4回目" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'4回目'!$A$1:$F$38</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$F$38</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,8 +36,74 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>BC00</author>
+  </authors>
+  <commentList>
+    <comment ref="V2" authorId="0" shapeId="0" xr:uid="{97C709AF-2BF3-4166-A0E4-28C670A37488}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="MS P ゴシック"/>
+            <charset val="128"/>
+          </rPr>
+          <t>テイク・仕出しと</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="MS P ゴシック"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="MS P ゴシック"/>
+            <charset val="128"/>
+          </rPr>
+          <t>出前館仕出しキーの</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="MS P ゴシック"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="MS P ゴシック"/>
+            <charset val="128"/>
+          </rPr>
+          <t>合計数値です。</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="63">
   <si>
     <t>人数/件数</t>
   </si>
@@ -233,18 +299,72 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>〇〇店</t>
+    <t>太田店</t>
+    <rPh sb="0" eb="2">
+      <t>オオタ</t>
+    </rPh>
     <rPh sb="2" eb="3">
-      <t xml:space="preserve">キリュウテン </t>
+      <t>テン</t>
     </rPh>
     <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ランチ売上</t>
+  </si>
+  <si>
+    <t>ランチ客数</t>
+  </si>
+  <si>
+    <t>ディナー売上</t>
+  </si>
+  <si>
+    <t>ディナー客数</t>
+  </si>
+  <si>
+    <t>宴会売上</t>
+  </si>
+  <si>
+    <t>宴会客数</t>
+  </si>
+  <si>
+    <t>法事売上</t>
+  </si>
+  <si>
+    <t>法事客数</t>
+  </si>
+  <si>
+    <t>葬儀売上</t>
+  </si>
+  <si>
+    <t>葬儀客数</t>
+  </si>
+  <si>
+    <t>テイク・仕出し・他</t>
+  </si>
+  <si>
+    <t>出前館仕出しキー</t>
+  </si>
+  <si>
+    <t>店外売上（テイク・仕出し）</t>
+  </si>
+  <si>
+    <t>割引計</t>
+  </si>
+  <si>
+    <t>割引件数</t>
+  </si>
+  <si>
+    <t>労働時間</t>
+  </si>
+  <si>
+    <t>人時売上</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -340,16 +460,141 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="MS P ゴシック"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -490,16 +735,56 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -593,12 +878,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255"/>
     </xf>
@@ -623,6 +902,117 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="38" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="13" fillId="2" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="13" fillId="3" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="13" fillId="4" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="13" fillId="5" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="2" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="13" fillId="6" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="6" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="13" fillId="8" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="8" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="13" fillId="10" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="10" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="13" fillId="12" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="12" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="13" fillId="14" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="14" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="13" fillId="15" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="15" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="13" fillId="16" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="16" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="13" fillId="17" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="17" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="13" fillId="18" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -633,13 +1023,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="桁区切り" xfId="2" builtinId="6"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1" xr:uid="{B45AF037-9716-42C2-BD08-98E2E482ECB5}"/>
   </cellStyles>
@@ -952,15 +1343,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCF4A1CD-5445-4D13-8E90-22321CDAEE44}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCF4A1CD-5445-4D13-8E90-22321CDAEE44}">
   <sheetPr codeName="Sheet1">
     <tabColor theme="9" tint="0.59999389629810485"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:Z48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13" defaultRowHeight="20"/>
@@ -970,21 +1361,80 @@
     <col min="3" max="3" width="22.83203125" style="4" customWidth="1"/>
     <col min="4" max="4" width="13" style="4"/>
     <col min="5" max="5" width="16.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="13" style="4"/>
+    <col min="6" max="7" width="13" style="4"/>
+    <col min="8" max="26" width="6.1640625" style="4" customWidth="1"/>
+    <col min="27" max="16384" width="13" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:26" ht="21" thickBot="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="44"/>
-      <c r="E1" s="45"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="80"/>
       <c r="F1" s="3"/>
-      <c r="G1" s="35"/>
-    </row>
-    <row r="2" spans="1:7" ht="21" thickBot="1">
+      <c r="G1" s="33"/>
+      <c r="H1" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="M1" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="N1" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="O1" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="P1" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q1" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="R1" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="S1" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="T1" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="U1" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="V1" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="W1" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="X1" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y1" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z1" s="39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" ht="21" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -999,8 +1449,36 @@
       <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="21" thickBot="1">
+      <c r="H2" s="43"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="56">
+        <f>A10</f>
+        <v>0</v>
+      </c>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="60">
+        <f>A12</f>
+        <v>0</v>
+      </c>
+      <c r="R2" s="62"/>
+      <c r="S2" s="64">
+        <f>A14</f>
+        <v>0</v>
+      </c>
+      <c r="T2" s="66"/>
+      <c r="U2" s="68"/>
+      <c r="V2" s="74"/>
+      <c r="W2" s="70"/>
+      <c r="X2" s="72"/>
+      <c r="Y2" s="40"/>
+      <c r="Z2" s="41"/>
+    </row>
+    <row r="3" spans="1:26" ht="21" thickBot="1">
       <c r="A3" s="6"/>
       <c r="B3" s="21"/>
       <c r="C3" s="2"/>
@@ -1008,9 +1486,11 @@
       <c r="E3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="24"/>
-    </row>
-    <row r="4" spans="1:7" ht="21" thickBot="1">
+      <c r="F3" s="42"/>
+      <c r="P3" s="75"/>
+      <c r="R3" s="75"/>
+    </row>
+    <row r="4" spans="1:26" ht="21" thickBot="1">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="2"/>
@@ -1018,9 +1498,9 @@
       <c r="E4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="25"/>
-    </row>
-    <row r="5" spans="1:7" ht="21" thickBot="1">
+      <c r="F4" s="45"/>
+    </row>
+    <row r="5" spans="1:26" ht="21" thickBot="1">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="2"/>
@@ -1030,7 +1510,7 @@
       </c>
       <c r="F5" s="25"/>
     </row>
-    <row r="6" spans="1:7" ht="21" thickBot="1">
+    <row r="6" spans="1:26" ht="21" thickBot="1">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="2"/>
@@ -1040,20 +1520,20 @@
       </c>
       <c r="F6" s="25"/>
     </row>
-    <row r="7" spans="1:7" ht="21" thickBot="1">
+    <row r="7" spans="1:26" ht="21" thickBot="1">
       <c r="A7" s="5" t="s">
         <v>40</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="34" t="s">
+      <c r="E7" s="32" t="s">
         <v>44</v>
       </c>
       <c r="F7" s="25"/>
     </row>
-    <row r="8" spans="1:7" ht="21" thickBot="1">
-      <c r="A8" s="6"/>
+    <row r="8" spans="1:26" ht="21" thickBot="1">
+      <c r="A8" s="49"/>
       <c r="B8" s="21"/>
       <c r="C8" s="2" t="s">
         <v>7</v>
@@ -1064,10 +1544,10 @@
       <c r="E8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="25"/>
-    </row>
-    <row r="9" spans="1:7" ht="21" thickBot="1">
-      <c r="A9" s="31"/>
+      <c r="F8" s="47"/>
+    </row>
+    <row r="9" spans="1:26" ht="21" thickBot="1">
+      <c r="A9" s="53"/>
       <c r="B9" s="23"/>
       <c r="C9" s="2" t="s">
         <v>7</v>
@@ -1078,11 +1558,11 @@
       <c r="E9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="25"/>
-    </row>
-    <row r="10" spans="1:7" ht="23" thickBot="1">
-      <c r="A10" s="32"/>
-      <c r="B10" s="33" t="s">
+      <c r="F9" s="51"/>
+    </row>
+    <row r="10" spans="1:26" ht="23" thickBot="1">
+      <c r="A10" s="57"/>
+      <c r="B10" s="31" t="s">
         <v>41</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1094,9 +1574,9 @@
       <c r="E10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="25"/>
-    </row>
-    <row r="11" spans="1:7" ht="21" thickBot="1">
+      <c r="F10" s="55"/>
+    </row>
+    <row r="11" spans="1:26" ht="21" thickBot="1">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2" t="s">
@@ -1110,9 +1590,9 @@
       </c>
       <c r="F11" s="25"/>
     </row>
-    <row r="12" spans="1:7" ht="23" thickBot="1">
-      <c r="A12" s="32"/>
-      <c r="B12" s="33" t="s">
+    <row r="12" spans="1:26" ht="23" thickBot="1">
+      <c r="A12" s="61"/>
+      <c r="B12" s="31" t="s">
         <v>41</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1124,9 +1604,9 @@
       <c r="E12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="25"/>
-    </row>
-    <row r="13" spans="1:7" ht="21" thickBot="1">
+      <c r="F12" s="59"/>
+    </row>
+    <row r="13" spans="1:26" ht="21" thickBot="1">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2" t="s">
@@ -1140,9 +1620,9 @@
       </c>
       <c r="F13" s="25"/>
     </row>
-    <row r="14" spans="1:7" ht="23" thickBot="1">
-      <c r="A14" s="32"/>
-      <c r="B14" s="33" t="s">
+    <row r="14" spans="1:26" ht="23" thickBot="1">
+      <c r="A14" s="65"/>
+      <c r="B14" s="31" t="s">
         <v>41</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -1154,9 +1634,9 @@
       <c r="E14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="25"/>
-    </row>
-    <row r="15" spans="1:7" ht="21" thickBot="1">
+      <c r="F14" s="63"/>
+    </row>
+    <row r="15" spans="1:26" ht="21" thickBot="1">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2" t="s">
@@ -1168,9 +1648,9 @@
       <c r="E15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="26"/>
-    </row>
-    <row r="16" spans="1:7" ht="21" thickBot="1">
+      <c r="F15" s="63"/>
+    </row>
+    <row r="16" spans="1:26" ht="21" thickBot="1">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="2" t="s">
@@ -1182,24 +1662,24 @@
       <c r="E16" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="24"/>
+      <c r="F16" s="67"/>
     </row>
     <row r="17" spans="1:6" ht="21" thickBot="1">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="32" t="s">
         <v>43</v>
       </c>
       <c r="D17" s="8">
         <v>0.08</v>
       </c>
-      <c r="E17" s="36" t="s">
+      <c r="E17" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="F17" s="24"/>
+      <c r="F17" s="69"/>
     </row>
     <row r="18" spans="1:6" ht="21" thickBot="1">
-      <c r="A18" s="36"/>
+      <c r="A18" s="34"/>
       <c r="B18" s="1"/>
       <c r="C18" s="7" t="s">
         <v>15</v>
@@ -1211,7 +1691,7 @@
       <c r="F18" s="24"/>
     </row>
     <row r="19" spans="1:6" ht="21" thickBot="1">
-      <c r="A19" s="36"/>
+      <c r="A19" s="34"/>
       <c r="B19" s="1"/>
       <c r="C19" s="7" t="s">
         <v>15</v>
@@ -1223,7 +1703,7 @@
       <c r="F19" s="25"/>
     </row>
     <row r="20" spans="1:6" ht="21" thickBot="1">
-      <c r="A20" s="37"/>
+      <c r="A20" s="35"/>
       <c r="B20" s="1"/>
       <c r="C20" s="7" t="s">
         <v>15</v>
@@ -1235,7 +1715,7 @@
       <c r="F20" s="25"/>
     </row>
     <row r="21" spans="1:6" ht="21" thickBot="1">
-      <c r="A21" s="36"/>
+      <c r="A21" s="34"/>
       <c r="B21" s="1"/>
       <c r="C21" s="7" t="s">
         <v>15</v>
@@ -1247,16 +1727,16 @@
       <c r="F21" s="25"/>
     </row>
     <row r="22" spans="1:6" ht="21" thickBot="1">
-      <c r="A22" s="38"/>
+      <c r="A22" s="36"/>
       <c r="B22" s="1"/>
       <c r="C22" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="29"/>
+      <c r="D22" s="73"/>
       <c r="E22" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F22" s="25"/>
+      <c r="F22" s="71"/>
     </row>
     <row r="23" spans="1:6" ht="21" thickBot="1">
       <c r="A23" s="1"/>
@@ -1447,23 +1927,23 @@
       <c r="F36" s="27"/>
     </row>
     <row r="37" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A37" s="41"/>
-      <c r="B37" s="42"/>
-      <c r="C37" s="42"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="42"/>
-      <c r="F37" s="43"/>
+      <c r="A37" s="76"/>
+      <c r="B37" s="77"/>
+      <c r="C37" s="77"/>
+      <c r="D37" s="77"/>
+      <c r="E37" s="77"/>
+      <c r="F37" s="78"/>
     </row>
     <row r="38" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A38" s="41"/>
-      <c r="B38" s="42"/>
-      <c r="C38" s="42"/>
-      <c r="D38" s="42"/>
-      <c r="E38" s="42"/>
-      <c r="F38" s="43"/>
+      <c r="A38" s="76"/>
+      <c r="B38" s="77"/>
+      <c r="C38" s="77"/>
+      <c r="D38" s="77"/>
+      <c r="E38" s="77"/>
+      <c r="F38" s="78"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="39"/>
+      <c r="A39" s="37"/>
       <c r="B39" s="1"/>
       <c r="C39" s="2"/>
       <c r="D39" s="1"/>
@@ -1511,7 +1991,7 @@
       <c r="F44" s="2"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="39"/>
+      <c r="A45" s="37"/>
       <c r="B45" s="1"/>
       <c r="C45" s="2"/>
       <c r="D45" s="1"/>
@@ -1519,7 +1999,7 @@
       <c r="F45" s="2"/>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="40"/>
+      <c r="A48" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1534,13 +2014,30 @@
   <colBreaks count="1" manualBreakCount="1">
     <brk id="2" max="37" man="1"/>
   </colBreaks>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100F2E2D9A297225448BCECB21AACC0C26B" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="1431bc74fa5d6e08c8ddcb0cfde28ff2">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6efefd09-9ac8-404c-8fa3-315f84d20ed9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d22115d6a3248950220c06e1ccd5236f" ns2:_="">
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100F2E2D9A297225448BCECB21AACC0C26B" ma:contentTypeVersion="13" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="54f2d7f186656d408130e3a6c6b12d71">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6efefd09-9ac8-404c-8fa3-315f84d20ed9" xmlns:ns3="05260271-1e07-4260-93b4-cdc52930dcd4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="619bdf6ddfb84ae41443206b303f6a78" ns2:_="" ns3:_="">
     <xsd:import namespace="6efefd09-9ac8-404c-8fa3-315f84d20ed9"/>
+    <xsd:import namespace="05260271-1e07-4260-93b4-cdc52930dcd4"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -1557,6 +2054,9 @@
                 <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -1619,6 +2119,41 @@
     <xsd:element name="MediaServiceLocation" ma:index="17" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="20" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="05260271-1e07-4260-93b4-cdc52930dcd4" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="18" nillable="true" ma:displayName="共有相手" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="19" nillable="true" ma:displayName="共有相手の詳細情報" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -1721,29 +2256,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77C62038-54D6-4274-9BCA-49C8D71493C0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07309FF9-1432-457C-9384-1F7C76649A1E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="05260271-1e07-4260-93b4-cdc52930dcd4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="6efefd09-9ac8-404c-8fa3-315f84d20ed9"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF36AD5C-C188-4CF9-B52F-EDBDE771166B}">
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D6414B2-8130-4651-9116-FFA31AF3A947}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="6efefd09-9ac8-404c-8fa3-315f84d20ed9"/>
+    <ds:schemaRef ds:uri="05260271-1e07-4260-93b4-cdc52930dcd4"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -1752,21 +2298,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07309FF9-1432-457C-9384-1F7C76649A1E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77C62038-54D6-4274-9BCA-49C8D71493C0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>